--- a/aimms_model/energy_hub/results/Generic_energy_hub_experiment_with_sizing/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/Generic_energy_hub_experiment_with_sizing/results_costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="10035" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="13395" windowHeight="15135" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Operating_cost_per_technology" sheetId="1" r:id="rId1"/>
@@ -57,11 +57,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,7 +87,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -101,9 +100,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -141,7 +140,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -213,7 +212,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,14 +390,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>524238.08793100994</v>
+        <v>523305.02827771317</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -406,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>352916.40950981929</v>
+        <v>382706.58399073023</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -442,7 +441,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -452,14 +451,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>96218.658658862405</v>
+        <v>96047.404890096368</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -467,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>36860.158326578668</v>
+        <v>39971.576550142461</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -483,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>36198.693000986386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>61312.774469960255</v>
+        <v>60506.880937124166</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -503,7 +502,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -513,7 +512,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -528,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>86867.798877831461</v>
+        <v>143330.27592117561</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -552,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>148924.33822072358</v>
+        <v>146966.88054421992</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,7 +563,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -574,14 +573,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>734443.69122984353</v>
+        <v>733339.37780778087</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -589,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>476644.36671422946</v>
+        <v>566008.43646204832</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,7 +604,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>36198.693000986386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -613,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>210237.11269068383</v>
+        <v>207473.76148134409</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -625,7 +624,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -635,15 +634,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>893101.79329797055</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+        <v>864289.81928383023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -653,15 +652,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>893101.79329797055</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+        <v>864289.81928383023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -671,7 +670,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -694,11 +693,11 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>18909.599603841063</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+        <v>27873.041618610343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -708,7 +707,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -731,11 +730,11 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>18909.599603841063</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+        <v>27873.041618610343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -745,14 +744,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>11108.365439949825</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+        <v>7757.1485290804649</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>